--- a/rawdata_sangwonseo_20250731.xlsx
+++ b/rawdata_sangwonseo_20250731.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korec97\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2D1DDE-89D7-463C-AF8D-EBFE0CA5EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5D560-1D38-48F3-AB8D-6FC5334A975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FDD6B2A-62F0-420B-B946-A6E631730C2D}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>BSI</t>
   </si>
@@ -90,6 +87,55 @@
     <t>mortgage rate Based on Newly Extended</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price index(apartment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.reb.or.kr/r-one/portal/stat/easyStatPage.do</t>
+  </si>
+  <si>
+    <t>OOT buyers purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local buyers purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: LOCAL + OOT + MID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID represents to buyers from different districts within Seoul - distinct from both OOT and LOCAL on page 15 of our paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRIHS</t>
+  </si>
+  <si>
+    <t>Housing Market Consumer Sentiment Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kremap.krihs.re.kr/grid/grid?jisu=167</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]mmm&quot;-&quot;yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +160,18 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,12 +181,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -137,12 +204,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A79EE9A-2BD5-4BF2-9FEE-42A1D00964CE}">
-  <dimension ref="A1:S181"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,39 +548,39 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>40209</v>
       </c>
@@ -530,10 +609,10 @@
         <v>81.25</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>40237</v>
       </c>
@@ -562,16 +641,16 @@
         <v>81.459999999999994</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40268</v>
       </c>
@@ -600,16 +679,16 @@
         <v>81.45</v>
       </c>
       <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
       <c r="S4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>40298</v>
       </c>
@@ -638,7 +717,7 @@
         <v>81.37</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>40329</v>
       </c>
@@ -666,8 +745,17 @@
       <c r="I6">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>40359</v>
       </c>
@@ -695,8 +783,17 @@
       <c r="I7">
         <v>80.69</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>40390</v>
       </c>
@@ -724,8 +821,17 @@
       <c r="I8">
         <v>80.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>40421</v>
       </c>
@@ -754,7 +860,7 @@
         <v>79.930000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>40451</v>
       </c>
@@ -782,8 +888,14 @@
       <c r="I10">
         <v>79.73</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>40482</v>
       </c>
@@ -811,8 +923,14 @@
       <c r="I11">
         <v>79.569999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>40512</v>
       </c>
@@ -841,7 +959,7 @@
         <v>79.48</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -869,8 +987,20 @@
       <c r="I13">
         <v>79.510000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>40574</v>
       </c>
@@ -899,7 +1029,7 @@
         <v>79.63</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>40602</v>
       </c>
@@ -928,7 +1058,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>40633</v>
       </c>
